--- a/raw/forum.xlsx
+++ b/raw/forum.xlsx
@@ -499,14 +499,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Maker Faire Rome的人们和创意</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">变与不变 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>社区联结创新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -535,10 +527,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3D打印想象力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天眼观世界——卫星遥感图像的前沿应用</t>
     <rPh sb="0" eb="1">
       <t>tian yan</t>
@@ -560,30 +548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>创客跨界·创造新未来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字化艺术连接人们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来AI会成为音乐家吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当灯光艺术遇见科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态的审美与科技变革</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天马行空的火箭梦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>我的中国风生肖机甲之路</t>
     <rPh sb="9" eb="10">
       <t>zhi lu</t>
@@ -603,57 +567,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>面向未来的品牌“使者”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享经济下的未来办公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业投资的机遇与挑战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>超级创客：把握创意社会新机遇的三大元思维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从GMIC看中国移动互联网10年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在的创客文化和去创造的勇气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从建筑到食物：3D打印的未来和Leandro Rolon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人乐队项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当我们在谈论Maker Faire Beijing时，我们在谈论什么</t>
-    <rPh sb="0" eb="1">
-      <t>dang wo men</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tan l</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wo men zai tan lun</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>s m</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -692,6 +606,80 @@
   </si>
   <si>
     <t>Alessandro Ranellucci</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创客进化</t>
+    <rPh sb="0" eb="1">
+      <t>dang wo men</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zaitan lshiwo men zai tan luns m</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Maker Culture and the Courage to Create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>People and Projects from Maker Faire Rome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Be or Not to Be</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D打印想象力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从GMIC看中国移动互联网10年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR技术武装开源硬件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digital Art Makes Relationships Among People</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来AI会成为音乐家吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When Light Art Meets Tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术变革下的传统文化与互动艺术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Architecture to Food: 3D Printing the Future with Leandro Rolon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天马行空的火箭梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot Band Project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向未来的品牌“使者”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享经济下的未来办公</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产业投资的机遇与挑战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +693,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2201,6 +2188,88 @@
         <a:xfrm>
           <a:off x="7556500" y="15354300"/>
           <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2108199</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>656100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7531099" y="11023600"/>
+          <a:ext cx="656101" cy="654050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8468</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311153</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7463897" y="6823606"/>
+          <a:ext cx="454027" cy="302685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2478,8 +2547,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2528,7 +2597,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="13" t="s">
@@ -2549,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13" t="s">
@@ -2569,12 +2638,12 @@
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>81</v>
+      <c r="D4" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>14</v>
@@ -2590,8 +2659,8 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>82</v>
+      <c r="D5" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13" t="s">
@@ -2611,8 +2680,8 @@
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>83</v>
+      <c r="D6" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13" t="s">
@@ -2632,8 +2701,8 @@
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>84</v>
+      <c r="D7" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13" t="s">
@@ -2653,8 +2722,8 @@
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>85</v>
+      <c r="D8" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13" t="s">
@@ -2674,8 +2743,8 @@
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>86</v>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="13" t="s">
@@ -2695,8 +2764,8 @@
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>87</v>
+      <c r="D10" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="13" t="s">
@@ -2716,15 +2785,15 @@
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>110</v>
+      <c r="D11" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2737,8 +2806,8 @@
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>88</v>
+      <c r="D12" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="13" t="s">
@@ -2758,8 +2827,8 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>105</v>
+      <c r="D13" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
@@ -2779,8 +2848,8 @@
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>89</v>
+      <c r="D14" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="13" t="s">
@@ -2800,8 +2869,8 @@
       <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>90</v>
+      <c r="D15" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="13" t="s">
@@ -2821,8 +2890,8 @@
       <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>91</v>
+      <c r="D16" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="13" t="s">
@@ -2842,8 +2911,8 @@
       <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>92</v>
+      <c r="D17" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="13" t="s">
@@ -2863,8 +2932,8 @@
       <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>93</v>
+      <c r="D18" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="13" t="s">
@@ -2884,8 +2953,8 @@
       <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>94</v>
+      <c r="D19" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="13" t="s">
@@ -2905,8 +2974,8 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>95</v>
+      <c r="D20" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="13" t="s">
@@ -2926,8 +2995,8 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>107</v>
+      <c r="D21" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="13" t="s">
@@ -2947,8 +3016,8 @@
       <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>96</v>
+      <c r="D22" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="13" t="s">
@@ -2968,15 +3037,15 @@
       <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>97</v>
+      <c r="D23" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,8 +3058,8 @@
       <c r="C24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>98</v>
+      <c r="D24" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="13" t="s">
@@ -3010,8 +3079,8 @@
       <c r="C25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>99</v>
+      <c r="D25" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="13" t="s">
@@ -3031,8 +3100,8 @@
       <c r="C26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>108</v>
+      <c r="D26" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="13" t="s">
@@ -3052,8 +3121,8 @@
       <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>100</v>
+      <c r="D27" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="13" t="s">
@@ -3073,8 +3142,8 @@
       <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>101</v>
+      <c r="D28" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="13" t="s">
@@ -3094,8 +3163,8 @@
       <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>102</v>
+      <c r="D29" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="13" t="s">
@@ -3115,15 +3184,15 @@
       <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>103</v>
+      <c r="D30" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3136,8 +3205,8 @@
       <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>104</v>
+      <c r="D31" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="13" t="s">

--- a/raw/forum.xlsx
+++ b/raw/forum.xlsx
@@ -317,16 +317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>长城会合伙人、CEO</t>
-    <rPh sb="0" eb="1">
-      <t>chang cheng hui</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>he huo r</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -681,6 +671,9 @@
   <si>
     <t>产业投资的机遇与挑战</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城会CEO</t>
   </si>
 </sst>
 </file>
@@ -1492,50 +1485,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9192</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7035801" y="6578600"/>
-          <a:ext cx="533399" cy="466392"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1554,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1598,7 +1547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1642,7 +1591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1686,7 +1635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1730,7 +1679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1774,7 +1723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1818,7 +1767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1862,7 +1811,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1906,7 +1855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1950,7 +1899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1994,7 +1943,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2038,7 +1987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2082,7 +2031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2124,7 +2073,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2173,7 +2122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2255,7 +2204,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2547,8 +2496,8 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2597,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="13" t="s">
@@ -2618,7 +2567,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13" t="s">
@@ -2639,11 +2588,11 @@
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>14</v>
@@ -2660,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13" t="s">
@@ -2681,14 +2630,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -2702,14 +2651,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,7 +2672,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13" t="s">
@@ -2744,14 +2693,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2765,14 +2714,14 @@
         <v>10</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2786,14 +2735,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2807,14 +2756,14 @@
         <v>34</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2828,14 +2777,14 @@
         <v>34</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2849,14 +2798,14 @@
         <v>34</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,14 +2819,14 @@
         <v>34</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2891,14 +2840,14 @@
         <v>34</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2912,14 +2861,14 @@
         <v>36</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2933,14 +2882,14 @@
         <v>36</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -2954,14 +2903,14 @@
         <v>36</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2975,14 +2924,14 @@
         <v>36</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2996,14 +2945,14 @@
         <v>36</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,14 +2966,14 @@
         <v>37</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3038,14 +2987,14 @@
         <v>37</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3059,14 +3008,14 @@
         <v>37</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3080,14 +3029,14 @@
         <v>37</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,14 +3050,14 @@
         <v>37</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3122,14 +3071,14 @@
         <v>38</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="13" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -3143,14 +3092,14 @@
         <v>38</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3164,14 +3113,14 @@
         <v>38</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -3185,14 +3134,14 @@
         <v>38</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,14 +3155,14 @@
         <v>38</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/raw/forum.xlsx
+++ b/raw/forum.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="4620" yWindow="480" windowWidth="24180" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="日程资料_论坛" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>日期</t>
   </si>
@@ -89,20 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Maker Faire Roman负责人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Make杂志和Maker Faire Taipei负责人</t>
-    <rPh sb="4" eb="5">
-      <t>za zhi</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>fu ze r</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Sabrina Merlo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,13 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伍晓岚</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>付志勇</t>
     <rPh sb="0" eb="1">
       <t>fu zhi yong</t>
@@ -200,10 +179,6 @@
     <rPh sb="0" eb="1">
       <t>xin wei lai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:25-14:40</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -463,10 +438,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玑瑛青年创新公社 副总经理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 博士/副教授；中国高校创新创业教育研究中心 副主任；清华大学艺术与科技创新基地主任；清华大学美术学院服务设计研究所 所长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -517,6 +488,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3D打印想象力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>天眼观世界——卫星遥感图像的前沿应用</t>
     <rPh sb="0" eb="1">
       <t>tian yan</t>
@@ -538,6 +513,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>未来AI会成为音乐家吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天马行空的火箭梦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>我的中国风生肖机甲之路</t>
     <rPh sb="9" eb="10">
       <t>zhi lu</t>
@@ -557,7 +540,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>面向未来的品牌“使者”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享经济下的未来办公</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产业投资的机遇与挑战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>超级创客：把握创意社会新机遇的三大元思维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从GMIC看中国移动互联网10年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -599,6 +598,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>长城会CEO</t>
+    <rPh sb="0" eb="1">
+      <t>chang cheng hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he huo r</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>创客进化</t>
     <rPh sb="0" eb="1">
       <t>dang wo men</t>
@@ -609,6 +618,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>AR技术武装开源硬件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术变革下的传统文化与互动艺术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Be or Not to Be</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玑瑛青年创新公社 合伙人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>On Maker Culture and the Courage to Create</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -617,19 +642,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>To Be or Not to Be</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D打印想象力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从GMIC看中国移动互联网10年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR技术武装开源硬件</t>
+    <t>When Light Art Meets Tech</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -637,55 +650,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未来AI会成为音乐家吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>When Light Art Meets Tech</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术变革下的传统文化与互动艺术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>From Architecture to Food: 3D Printing the Future with Leandro Rolon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天马行空的火箭梦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Robot Band Project</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>面向未来的品牌“使者”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享经济下的未来办公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产业投资的机遇与挑战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长城会CEO</t>
+    <t>Maker Faire Rome负责人</t>
+  </si>
+  <si>
+    <t>Maker Faire Taipei负责人</t>
+  </si>
+  <si>
+    <t>伍晓岚</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,12 +708,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -923,7 +909,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -967,7 +959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1011,7 +1009,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1055,7 +1059,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1093,7 +1103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1137,7 +1153,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1181,7 +1203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1212,20 +1240,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2108199</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>656100</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>455771</xdr:rowOff>
+      <xdr:rowOff>654050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1238,8 +1272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7035800" y="10502900"/>
-          <a:ext cx="457200" cy="455771"/>
+          <a:off x="7531099" y="11023600"/>
+          <a:ext cx="656101" cy="654050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1263,7 +1297,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1301,7 +1341,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1339,7 +1385,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1377,7 +1429,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1415,7 +1473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1453,7 +1517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1497,7 +1567,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1541,7 +1617,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1585,7 +1667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1629,7 +1717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1673,7 +1767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1717,7 +1817,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1761,7 +1867,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1805,7 +1917,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1849,7 +1967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1893,7 +2017,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1937,7 +2067,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1981,7 +2117,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2025,7 +2167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2069,7 +2217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30" descr="/Users/nancy/Desktop/0713_2.jpg"/>
+        <xdr:cNvPr id="31" name="图片 30" descr="/Users/nancy/Desktop/0713_2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2116,13 +2270,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPr id="32" name="图片 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2147,44 +2307,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2108199</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>656100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7531099" y="11023600"/>
-          <a:ext cx="656101" cy="654050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8468</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -2198,7 +2320,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="图片 27"/>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2496,8 +2624,9 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2546,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="13" t="s">
@@ -2561,17 +2690,17 @@
         <v>42958</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>13</v>
@@ -2582,20 +2711,20 @@
         <v>42958</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2603,20 +2732,20 @@
         <v>42958</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2624,20 +2753,20 @@
         <v>42958</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="13" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,20 +2774,20 @@
         <v>42958</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2666,20 +2795,20 @@
         <v>42958</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -2687,20 +2816,20 @@
         <v>42958</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,20 +2837,20 @@
         <v>42958</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,20 +2858,20 @@
         <v>42958</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2753,17 +2882,17 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,17 +2903,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2792,20 +2921,20 @@
         <v>42959</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,20 +2942,20 @@
         <v>42959</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2834,20 +2963,20 @@
         <v>42959</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,20 +2984,20 @@
         <v>42959</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,20 +3005,20 @@
         <v>42959</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,20 +3026,20 @@
         <v>42959</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,41 +3047,41 @@
         <v>42959</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>42959</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2963,17 +3092,17 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2984,17 +3113,17 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3002,20 +3131,20 @@
         <v>42960</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3023,20 +3152,20 @@
         <v>42960</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -3044,20 +3173,20 @@
         <v>42960</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3065,20 +3194,20 @@
         <v>42960</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,20 +3215,20 @@
         <v>42960</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3107,20 +3236,20 @@
         <v>42960</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -3128,20 +3257,20 @@
         <v>42960</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -3149,20 +3278,20 @@
         <v>42960</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
